--- a/hello world.xlsx
+++ b/hello world.xlsx
@@ -370,7 +370,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -382,12 +382,12 @@
         <v>1</v>
       </c>
       <c r="E1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -399,12 +399,12 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -416,12 +416,12 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -433,12 +433,12 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -450,12 +450,12 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -467,12 +467,12 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -484,12 +484,12 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -501,12 +501,12 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
@@ -518,12 +518,12 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
@@ -535,12 +535,12 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
@@ -552,12 +552,12 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
@@ -569,7 +569,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
